--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,52 +43,52 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>drop</t>
   </si>
   <si>
     <t>empty</t>
@@ -100,178 +100,181 @@
     <t>demand</t>
   </si>
   <si>
-    <t>outbreak</t>
+    <t>co</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>relief</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>available</t>
   </si>
   <si>
     <t>want</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>local</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>people</t>
+    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
@@ -635,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +646,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
         <v>39</v>
@@ -704,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7636986301369864</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6578947368421053</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5128205128205128</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.828125</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4515503875968992</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C10">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4509803921568628</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8203125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4496644295302014</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8083333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.4205426356589148</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.795774647887324</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3766233766233766</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3636363636363636</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,37 +1407,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3563829787234042</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7547169811320755</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3559322033898305</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.725</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L18">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.6684073107049608</v>
+        <v>0.71875</v>
       </c>
       <c r="L20">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="M20">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>127</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,37 +1607,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.257936507936508</v>
+        <v>0.2749003984063745</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.68</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,37 +1657,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1644204851752022</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="C22">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E22">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6631853785900783</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,37 +1707,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1144578313253012</v>
+        <v>0.008341675008341674</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>147</v>
+        <v>2972</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6382978723404256</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,87 +1757,63 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01114294810569882</v>
+        <v>0.00768</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="F24">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L24">
+        <v>29</v>
+      </c>
+      <c r="M24">
+        <v>29</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K24">
-        <v>0.5764705882352941</v>
-      </c>
-      <c r="L24">
-        <v>196</v>
-      </c>
-      <c r="M24">
-        <v>196</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.00738255033557047</v>
-      </c>
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>149</v>
-      </c>
-      <c r="E25">
-        <v>0.85</v>
-      </c>
-      <c r="F25">
-        <v>0.15</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2958</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K25">
-        <v>0.5730337078651685</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.5694915254237288</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1872,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5588235294117647</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1898,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5333333333333333</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1924,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5277777777777778</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1950,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5230769230769231</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1976,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.5116279069767442</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2007,7 +1986,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
         <v>0.5062761506276151</v>
@@ -2033,16 +2012,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33">
         <v>0.5</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2054,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2080,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.4931506849315068</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2106,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.4743589743589743</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2132,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.46875</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2158,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.4285714285714285</v>
+        <v>0.390625</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2184,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.2638888888888889</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2210,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2236,21 +2215,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.1754807692307692</v>
+        <v>0.1985645933014354</v>
       </c>
       <c r="L41">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M41">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2262,47 +2241,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.1717791411042945</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.1686046511627907</v>
+        <v>0.1706730769230769</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2314,38 +2293,38 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>143</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.1678657074340528</v>
+        <v>0.1674418604651163</v>
       </c>
       <c r="L44">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="N44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>347</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K45">
         <v>0.1615384615384615</v>
@@ -2371,42 +2350,42 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.1581395348837209</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.1495327102803738</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>0.97</v>
@@ -2418,21 +2397,21 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.1130434782608696</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2444,21 +2423,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>204</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.1107382550335571</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L49">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2470,189 +2449,189 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>795</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.09846153846153846</v>
+        <v>0.1017897091722595</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>293</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.09666666666666666</v>
+        <v>0.08565072302558398</v>
       </c>
       <c r="L51">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M51">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N51">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>813</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.09259259259259259</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="L52">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>441</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.07739938080495357</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L53">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N53">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>596</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.07641819034224097</v>
+        <v>0.07098765432098765</v>
       </c>
       <c r="L54">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="M54">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1970</v>
+        <v>602</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.07291666666666667</v>
+        <v>0.06770098730606489</v>
       </c>
       <c r="L55">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="M55">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>801</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.04116693679092383</v>
+        <v>0.05311778290993072</v>
       </c>
       <c r="L56">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="M56">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="N56">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0.15</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2958</v>
+        <v>820</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2660,25 +2639,25 @@
         <v>85</v>
       </c>
       <c r="K57">
-        <v>0.03910614525139665</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N57">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>516</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2686,77 +2665,129 @@
         <v>86</v>
       </c>
       <c r="K58">
-        <v>0.03312629399585922</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>934</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="K59">
-        <v>0.01901469317199654</v>
+        <v>0.03569110966904607</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="N59">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O59">
-        <v>0.15</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1135</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60">
+        <v>0.02910602910602911</v>
+      </c>
+      <c r="L60">
+        <v>28</v>
+      </c>
+      <c r="M60">
+        <v>34</v>
+      </c>
+      <c r="N60">
+        <v>0.82</v>
+      </c>
+      <c r="O60">
+        <v>0.18</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K60">
-        <v>0.01895135818066962</v>
-      </c>
-      <c r="L60">
-        <v>60</v>
-      </c>
-      <c r="M60">
-        <v>95</v>
-      </c>
-      <c r="N60">
-        <v>0.63</v>
-      </c>
-      <c r="O60">
-        <v>0.37</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3106</v>
+      <c r="K61">
+        <v>0.02392193893610324</v>
+      </c>
+      <c r="L61">
+        <v>76</v>
+      </c>
+      <c r="M61">
+        <v>100</v>
+      </c>
+      <c r="N61">
+        <v>0.76</v>
+      </c>
+      <c r="O61">
+        <v>0.24</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K62">
+        <v>0.01730103806228374</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62">
+        <v>0.8</v>
+      </c>
+      <c r="O62">
+        <v>0.2</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -58,30 +58,39 @@
     <t>war</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
@@ -91,7 +100,7 @@
     <t>drop</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -100,184 +109,193 @@
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -638,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,37 +725,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3">
-        <v>32</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8076923076923077</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -807,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7123287671232876</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C6">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D6">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -928,16 +946,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8723404255319149</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6842105263157895</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6153846153846154</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5405405405405406</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,16 +1146,16 @@
         <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4705882352941176</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4429530201342282</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4205426356589148</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C14">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7619047619047619</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3733333333333334</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7547169811320755</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3728813559322034</v>
+        <v>0.4295302013422819</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L16">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3636363636363636</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7407407407407407</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1475,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3439153439153439</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L18">
         <v>46</v>
       </c>
-      <c r="K18">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="L18">
-        <v>37</v>
-      </c>
       <c r="M18">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3389830508474576</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7125</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,7 +1575,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2888888888888889</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C20">
         <v>26</v>
@@ -1575,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.71875</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L20">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,37 +1625,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2749003984063745</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C21">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1675,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1528150134048257</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6631853785900783</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,37 +1725,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008341675008341674</v>
+        <v>0.2875</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.1899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2972</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.648936170212766</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L23">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,37 +1775,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00768</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3101</v>
+        <v>197</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6041666666666666</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,21 +1817,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.160857908847185</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>313</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.5941176470588235</v>
+        <v>0.625</v>
       </c>
       <c r="L25">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1851,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5813953488372093</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1882,16 +1924,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5692307692307692</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1903,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5661016949152542</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L29">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M29">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1929,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5393258426966292</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L30">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="M30">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1955,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5333333333333333</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1981,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5062761506276151</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2007,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2033,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4657534246575342</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2059,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2085,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.4042553191489361</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2111,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.3934426229508197</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2137,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.390625</v>
+        <v>0.46875</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2163,21 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.3559322033898305</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2189,47 +2231,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.2</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.1985645933014354</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="L41">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2241,73 +2283,73 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>335</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.1984126984126984</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.1706730769230769</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="L43">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>345</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.1674418604651163</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2319,99 +2361,99 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>179</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.1615384615384615</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>109</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.154320987654321</v>
+        <v>0.1658653846153846</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>137</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.1401869158878505</v>
+        <v>0.1650717703349282</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>184</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.1272727272727273</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2423,47 +2465,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.1192660550458716</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>288</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.1017897091722595</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L50">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2475,319 +2517,397 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>803</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.08565072302558398</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="L51">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>822</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.08270676691729323</v>
+        <v>0.121923937360179</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>244</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.08116883116883117</v>
+        <v>0.1207430340557276</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.07098765432098765</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L54">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="M54">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>602</v>
+        <v>816</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.06770098730606489</v>
+        <v>0.09119010819165378</v>
       </c>
       <c r="L55">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="M55">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="N55">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1983</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.05311778290993072</v>
+        <v>0.08736496007515265</v>
       </c>
       <c r="L56">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="M56">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>820</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.04732510288065844</v>
+        <v>0.08453608247422681</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.03723404255319149</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L58">
+        <v>19</v>
+      </c>
+      <c r="M58">
         <v>21</v>
       </c>
-      <c r="M58">
-        <v>24</v>
-      </c>
       <c r="N58">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O58">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>543</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.03569110966904607</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L59">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0.1899999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>2972</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.02910602910602911</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="M60">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="N60">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>934</v>
+        <v>796</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.02392193893610324</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="L61">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="N61">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="O61">
-        <v>0.24</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3101</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>0.01730103806228374</v>
+        <v>0.04464574571336137</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="N62">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O62">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>1136</v>
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63">
+        <v>0.04356846473029045</v>
+      </c>
+      <c r="L63">
+        <v>42</v>
+      </c>
+      <c r="M63">
+        <v>46</v>
+      </c>
+      <c r="N63">
+        <v>0.91</v>
+      </c>
+      <c r="O63">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K64">
+        <v>0.02796104304115614</v>
+      </c>
+      <c r="L64">
+        <v>89</v>
+      </c>
+      <c r="M64">
+        <v>107</v>
+      </c>
+      <c r="N64">
+        <v>0.83</v>
+      </c>
+      <c r="O64">
+        <v>0.17</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65">
+        <v>0.02599653379549393</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <v>37</v>
+      </c>
+      <c r="N65">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O65">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
